--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H2">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I2">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J2">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8572995000000001</v>
+        <v>5.4405145</v>
       </c>
       <c r="N2">
-        <v>1.714599</v>
+        <v>10.881029</v>
       </c>
       <c r="O2">
-        <v>0.01398780672512048</v>
+        <v>0.08939927462635759</v>
       </c>
       <c r="P2">
-        <v>0.0101303442722642</v>
+        <v>0.06703648784891887</v>
       </c>
       <c r="Q2">
-        <v>3.770879859522001</v>
+        <v>30.02620224575725</v>
       </c>
       <c r="R2">
-        <v>15.083519438088</v>
+        <v>120.104808983029</v>
       </c>
       <c r="S2">
-        <v>0.0002603813540087412</v>
+        <v>0.002220955460746017</v>
       </c>
       <c r="T2">
-        <v>0.0001315861014124352</v>
+        <v>0.001149411370132498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H3">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I3">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J3">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>121.559682</v>
       </c>
       <c r="O3">
-        <v>0.6611276990064369</v>
+        <v>0.6658284122828639</v>
       </c>
       <c r="P3">
-        <v>0.7182095803665801</v>
+        <v>0.7489120877548844</v>
       </c>
       <c r="Q3">
-        <v>178.229022873064</v>
+        <v>223.629315245947</v>
       </c>
       <c r="R3">
-        <v>1069.374137238384</v>
+        <v>1341.775891475682</v>
       </c>
       <c r="S3">
-        <v>0.01230681327122046</v>
+        <v>0.01654124437094135</v>
       </c>
       <c r="T3">
-        <v>0.009329041159662039</v>
+        <v>0.0128408885446855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H4">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I4">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J4">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.90949</v>
+        <v>14.8135455</v>
       </c>
       <c r="N4">
-        <v>5.728470000000001</v>
+        <v>29.627091</v>
       </c>
       <c r="O4">
-        <v>0.031155479576916</v>
+        <v>0.2434181955299528</v>
       </c>
       <c r="P4">
-        <v>0.03384544914194941</v>
+        <v>0.1825283367795742</v>
       </c>
       <c r="Q4">
-        <v>8.398998696440001</v>
+        <v>81.75596502127274</v>
       </c>
       <c r="R4">
-        <v>50.39399217864</v>
+        <v>327.023860085091</v>
       </c>
       <c r="S4">
-        <v>0.0005799555367361712</v>
+        <v>0.006047263502603401</v>
       </c>
       <c r="T4">
-        <v>0.0004396287612194412</v>
+        <v>0.003129641071570547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H5">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I5">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J5">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.756101</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N5">
-        <v>27.512202</v>
+        <v>0.0239</v>
       </c>
       <c r="O5">
-        <v>0.2244462782017679</v>
+        <v>0.0001309093507957717</v>
       </c>
       <c r="P5">
-        <v>0.1625500061227586</v>
+        <v>0.00014724453538256</v>
       </c>
       <c r="Q5">
-        <v>60.506980590156</v>
+        <v>0.04396803731666667</v>
       </c>
       <c r="R5">
-        <v>242.027922360624</v>
+        <v>0.2638082239</v>
       </c>
       <c r="S5">
-        <v>0.004178040701366324</v>
+        <v>3.252194592492421E-06</v>
       </c>
       <c r="T5">
-        <v>0.002111411124380337</v>
+        <v>2.524663039328973E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H6">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I6">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J6">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.710570333333333</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="N6">
-        <v>11.131711</v>
+        <v>0.22332</v>
       </c>
       <c r="O6">
-        <v>0.06054213336486552</v>
+        <v>0.001223208210029779</v>
       </c>
       <c r="P6">
-        <v>0.0657693517664191</v>
+        <v>0.001375843081239887</v>
       </c>
       <c r="Q6">
-        <v>16.32115140310533</v>
+        <v>0.41083439722</v>
       </c>
       <c r="R6">
-        <v>97.926908418632</v>
+        <v>2.46500638332</v>
       </c>
       <c r="S6">
-        <v>0.001126984592360079</v>
+        <v>3.03882885521091E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008542979743601392</v>
+        <v>2.359028242439106E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.398556</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H7">
-        <v>8.797112</v>
+        <v>595.036979</v>
       </c>
       <c r="I7">
-        <v>0.01861488074046137</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J7">
-        <v>0.01298930202922164</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5357033333333333</v>
+        <v>5.4405145</v>
       </c>
       <c r="N7">
-        <v>1.60711</v>
+        <v>10.881029</v>
       </c>
       <c r="O7">
-        <v>0.008740603124893291</v>
+        <v>0.08939927462635759</v>
       </c>
       <c r="P7">
-        <v>0.009495268330028492</v>
+        <v>0.06703648784891887</v>
       </c>
       <c r="Q7">
-        <v>2.356321111053333</v>
+        <v>1079.102437428565</v>
       </c>
       <c r="R7">
-        <v>14.13792666632</v>
+        <v>6474.614624571391</v>
       </c>
       <c r="S7">
-        <v>0.0001627052847695926</v>
+        <v>0.07981823447052674</v>
       </c>
       <c r="T7">
-        <v>0.000123336908187243</v>
+        <v>0.06196251199034068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>595.036979</v>
       </c>
       <c r="I8">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J8">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8572995000000001</v>
+        <v>40.519894</v>
       </c>
       <c r="N8">
-        <v>1.714599</v>
+        <v>121.559682</v>
       </c>
       <c r="O8">
-        <v>0.01398780672512048</v>
+        <v>0.6658284122828639</v>
       </c>
       <c r="P8">
-        <v>0.0101303442722642</v>
+        <v>0.7489120877548844</v>
       </c>
       <c r="Q8">
-        <v>170.0416348594035</v>
+        <v>8036.945105053408</v>
       </c>
       <c r="R8">
-        <v>1020.249809156421</v>
+        <v>72332.50594548068</v>
       </c>
       <c r="S8">
-        <v>0.01174146956995969</v>
+        <v>0.5944706883903884</v>
       </c>
       <c r="T8">
-        <v>0.008900488735717253</v>
+        <v>0.6922271095378019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>595.036979</v>
       </c>
       <c r="I9">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J9">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.519894</v>
+        <v>14.8135455</v>
       </c>
       <c r="N9">
-        <v>121.559682</v>
+        <v>29.627091</v>
       </c>
       <c r="O9">
-        <v>0.6611276990064369</v>
+        <v>0.2434181955299528</v>
       </c>
       <c r="P9">
-        <v>0.7182095803665801</v>
+        <v>0.1825283367795742</v>
       </c>
       <c r="Q9">
-        <v>8036.945105053408</v>
+        <v>2938.202454199681</v>
       </c>
       <c r="R9">
-        <v>72332.50594548068</v>
+        <v>17629.21472519809</v>
       </c>
       <c r="S9">
-        <v>0.5549555346515335</v>
+        <v>0.2173307410648049</v>
       </c>
       <c r="T9">
-        <v>0.6310166869095172</v>
+        <v>0.1687128102798379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>595.036979</v>
       </c>
       <c r="I10">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J10">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.90949</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N10">
-        <v>5.728470000000001</v>
+        <v>0.0239</v>
       </c>
       <c r="O10">
-        <v>0.031155479576916</v>
+        <v>0.0001309093507957717</v>
       </c>
       <c r="P10">
-        <v>0.03384544914194941</v>
+        <v>0.00014724453538256</v>
       </c>
       <c r="Q10">
-        <v>378.7390536769033</v>
+        <v>1.580153755344444</v>
       </c>
       <c r="R10">
-        <v>3408.65148309213</v>
+        <v>14.2213837981</v>
       </c>
       <c r="S10">
-        <v>0.02615214254661566</v>
+        <v>0.0001168796201073501</v>
       </c>
       <c r="T10">
-        <v>0.029736505566546</v>
+        <v>0.0001360996314382713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>595.036979</v>
       </c>
       <c r="I11">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J11">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>13.756101</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="N11">
-        <v>27.512202</v>
+        <v>0.22332</v>
       </c>
       <c r="O11">
-        <v>0.2244462782017679</v>
+        <v>0.001223208210029779</v>
       </c>
       <c r="P11">
-        <v>0.1625500061227586</v>
+        <v>0.001375843081239887</v>
       </c>
       <c r="Q11">
-        <v>2728.462927286293</v>
+        <v>14.76485090558667</v>
       </c>
       <c r="R11">
-        <v>16370.77756371776</v>
+        <v>132.88365815028</v>
       </c>
       <c r="S11">
-        <v>0.1884018843972172</v>
+        <v>0.001092115345706001</v>
       </c>
       <c r="T11">
-        <v>0.1428159260537173</v>
+        <v>0.00127170584488681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>198.3456596666666</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H12">
-        <v>595.036979</v>
+        <v>1.638026</v>
       </c>
       <c r="I12">
-        <v>0.8394074782913161</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J12">
-        <v>0.878596866651989</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.710570333333333</v>
+        <v>5.4405145</v>
       </c>
       <c r="N12">
-        <v>11.131711</v>
+        <v>10.881029</v>
       </c>
       <c r="O12">
-        <v>0.06054213336486552</v>
+        <v>0.08939927462635759</v>
       </c>
       <c r="P12">
-        <v>0.0657693517664191</v>
+        <v>0.06703648784891887</v>
       </c>
       <c r="Q12">
-        <v>735.9755205045631</v>
+        <v>2.970568068125667</v>
       </c>
       <c r="R12">
-        <v>6623.779684541068</v>
+        <v>17.823408408754</v>
       </c>
       <c r="S12">
-        <v>0.05081951949817832</v>
+        <v>0.0002197247363626775</v>
       </c>
       <c r="T12">
-        <v>0.05778474638370828</v>
+        <v>0.0001705712573293529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>198.3456596666666</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H13">
-        <v>595.036979</v>
+        <v>1.638026</v>
       </c>
       <c r="I13">
-        <v>0.8394074782913161</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J13">
-        <v>0.878596866651989</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5357033333333333</v>
+        <v>40.519894</v>
       </c>
       <c r="N13">
-        <v>1.60711</v>
+        <v>121.559682</v>
       </c>
       <c r="O13">
-        <v>0.008740603124893291</v>
+        <v>0.6658284122828639</v>
       </c>
       <c r="P13">
-        <v>0.009495268330028492</v>
+        <v>0.7489120877548844</v>
       </c>
       <c r="Q13">
-        <v>106.2544310356322</v>
+        <v>22.12421329641467</v>
       </c>
       <c r="R13">
-        <v>956.28987932069</v>
+        <v>199.117919667732</v>
       </c>
       <c r="S13">
-        <v>0.007336927627811875</v>
+        <v>0.001636467107402</v>
       </c>
       <c r="T13">
-        <v>0.008342513002782896</v>
+        <v>0.001905572331375673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H14">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I14">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J14">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8572995000000001</v>
+        <v>14.8135455</v>
       </c>
       <c r="N14">
-        <v>1.714599</v>
+        <v>29.627091</v>
       </c>
       <c r="O14">
-        <v>0.01398780672512048</v>
+        <v>0.2434181955299528</v>
       </c>
       <c r="P14">
-        <v>0.0101303442722642</v>
+        <v>0.1825283367795742</v>
       </c>
       <c r="Q14">
-        <v>0.9501867577590001</v>
+        <v>8.088324227061001</v>
       </c>
       <c r="R14">
-        <v>5.701120546554001</v>
+        <v>48.529945362366</v>
       </c>
       <c r="S14">
-        <v>6.561092470812003E-05</v>
+        <v>0.000598271060500625</v>
       </c>
       <c r="T14">
-        <v>4.97356223448118E-05</v>
+        <v>0.0004644349503048982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H15">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I15">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J15">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>40.519894</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N15">
-        <v>121.559682</v>
+        <v>0.0239</v>
       </c>
       <c r="O15">
-        <v>0.6611276990064369</v>
+        <v>0.0001309093507957717</v>
       </c>
       <c r="P15">
-        <v>0.7182095803665801</v>
+        <v>0.00014724453538256</v>
       </c>
       <c r="Q15">
-        <v>44.91017048837467</v>
+        <v>0.004349869044444445</v>
       </c>
       <c r="R15">
-        <v>404.191534395372</v>
+        <v>0.0391488214</v>
       </c>
       <c r="S15">
-        <v>0.003101072279191816</v>
+        <v>3.217478297360781E-07</v>
       </c>
       <c r="T15">
-        <v>0.003526099359854646</v>
+        <v>3.746569419281518E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H16">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I16">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J16">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.90949</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="N16">
-        <v>5.728470000000001</v>
+        <v>0.22332</v>
       </c>
       <c r="O16">
-        <v>0.031155479576916</v>
+        <v>0.001223208210029779</v>
       </c>
       <c r="P16">
-        <v>0.03384544914194941</v>
+        <v>0.001375843081239887</v>
       </c>
       <c r="Q16">
-        <v>2.116380695513334</v>
+        <v>0.04064488514666667</v>
       </c>
       <c r="R16">
-        <v>19.04742625962</v>
+        <v>0.36580396632</v>
       </c>
       <c r="S16">
-        <v>0.000146137265472461</v>
+        <v>3.00639018145025E-06</v>
       </c>
       <c r="T16">
-        <v>0.000166166561705439</v>
+        <v>3.500769383740371E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.108348666666667</v>
+        <v>17.1804095</v>
       </c>
       <c r="H17">
-        <v>3.325046</v>
+        <v>34.360819</v>
       </c>
       <c r="I17">
-        <v>0.00469057987413355</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J17">
-        <v>0.004909568817022596</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.756101</v>
+        <v>5.4405145</v>
       </c>
       <c r="N17">
-        <v>27.512202</v>
+        <v>10.881029</v>
       </c>
       <c r="O17">
-        <v>0.2244462782017679</v>
+        <v>0.08939927462635759</v>
       </c>
       <c r="P17">
-        <v>0.1625500061227586</v>
+        <v>0.06703648784891887</v>
       </c>
       <c r="Q17">
-        <v>15.246556201882</v>
+        <v>93.47026700068774</v>
       </c>
       <c r="R17">
-        <v>91.47933721129201</v>
+        <v>373.881068002751</v>
       </c>
       <c r="S17">
-        <v>0.001052783195357392</v>
+        <v>0.006913738148216829</v>
       </c>
       <c r="T17">
-        <v>0.0007980504412671276</v>
+        <v>0.003578067808262091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.108348666666667</v>
+        <v>17.1804095</v>
       </c>
       <c r="H18">
-        <v>3.325046</v>
+        <v>34.360819</v>
       </c>
       <c r="I18">
-        <v>0.00469057987413355</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J18">
-        <v>0.004909568817022596</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.710570333333333</v>
+        <v>40.519894</v>
       </c>
       <c r="N18">
-        <v>11.131711</v>
+        <v>121.559682</v>
       </c>
       <c r="O18">
-        <v>0.06054213336486552</v>
+        <v>0.6658284122828639</v>
       </c>
       <c r="P18">
-        <v>0.0657693517664191</v>
+        <v>0.7489120877548844</v>
       </c>
       <c r="Q18">
-        <v>4.112605681522888</v>
+        <v>696.148371816593</v>
       </c>
       <c r="R18">
-        <v>37.013451133706</v>
+        <v>4176.890230899558</v>
       </c>
       <c r="S18">
-        <v>0.0002839777122983475</v>
+        <v>0.0514921772397633</v>
       </c>
       <c r="T18">
-        <v>0.0003228991585482012</v>
+        <v>0.03997312983420748</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.108348666666667</v>
+        <v>17.1804095</v>
       </c>
       <c r="H19">
-        <v>3.325046</v>
+        <v>34.360819</v>
       </c>
       <c r="I19">
-        <v>0.00469057987413355</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J19">
-        <v>0.004909568817022596</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5357033333333333</v>
+        <v>14.8135455</v>
       </c>
       <c r="N19">
-        <v>1.60711</v>
+        <v>29.627091</v>
       </c>
       <c r="O19">
-        <v>0.008740603124893291</v>
+        <v>0.2434181955299528</v>
       </c>
       <c r="P19">
-        <v>0.009495268330028492</v>
+        <v>0.1825283367795742</v>
       </c>
       <c r="Q19">
-        <v>0.5937460752288889</v>
+        <v>254.5027778368822</v>
       </c>
       <c r="R19">
-        <v>5.34371467706</v>
+        <v>1018.011111347529</v>
       </c>
       <c r="S19">
-        <v>4.099849710541329E-05</v>
+        <v>0.01882486934529735</v>
       </c>
       <c r="T19">
-        <v>4.66176733023701E-05</v>
+        <v>0.009742437094832808</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H20">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I20">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J20">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.8572995000000001</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N20">
-        <v>1.714599</v>
+        <v>0.0239</v>
       </c>
       <c r="O20">
-        <v>0.01398780672512048</v>
+        <v>0.0001309093507957717</v>
       </c>
       <c r="P20">
-        <v>0.0101303442722642</v>
+        <v>0.00014724453538256</v>
       </c>
       <c r="Q20">
-        <v>23.3361870518115</v>
+        <v>0.1368705956833333</v>
       </c>
       <c r="R20">
-        <v>93.34474820724601</v>
+        <v>0.8212235741</v>
       </c>
       <c r="S20">
-        <v>0.0016113767100292</v>
+        <v>1.012394089703478E-05</v>
       </c>
       <c r="T20">
-        <v>0.0008143239748742545</v>
+        <v>7.859166685197143E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H21">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I21">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J21">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>40.519894</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="N21">
-        <v>121.559682</v>
+        <v>0.22332</v>
       </c>
       <c r="O21">
-        <v>0.6611276990064369</v>
+        <v>0.001223208210029779</v>
       </c>
       <c r="P21">
-        <v>0.7182095803665801</v>
+        <v>0.001375843081239887</v>
       </c>
       <c r="Q21">
-        <v>1102.974894658838</v>
+        <v>1.27890968318</v>
       </c>
       <c r="R21">
-        <v>6617.849367953028</v>
+        <v>7.67345809908</v>
       </c>
       <c r="S21">
-        <v>0.07616103063684501</v>
+        <v>9.459742598852751E-05</v>
       </c>
       <c r="T21">
-        <v>0.05773301129342217</v>
+        <v>7.343552736980026E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>27.220577</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H22">
-        <v>54.441154</v>
+        <v>0.291411</v>
       </c>
       <c r="I22">
-        <v>0.1151986685042877</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J22">
-        <v>0.08038462987914302</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.90949</v>
+        <v>5.4405145</v>
       </c>
       <c r="N22">
-        <v>5.728470000000001</v>
+        <v>10.881029</v>
       </c>
       <c r="O22">
-        <v>0.031155479576916</v>
+        <v>0.08939927462635759</v>
       </c>
       <c r="P22">
-        <v>0.03384544914194941</v>
+        <v>0.06703648784891887</v>
       </c>
       <c r="Q22">
-        <v>51.97741957573</v>
+        <v>0.5284752569864999</v>
       </c>
       <c r="R22">
-        <v>311.86451745438</v>
+        <v>3.170851541919</v>
       </c>
       <c r="S22">
-        <v>0.003589069763873252</v>
+        <v>3.908985885949564E-05</v>
       </c>
       <c r="T22">
-        <v>0.002720653902368962</v>
+        <v>3.034526965359772E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>27.220577</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H23">
-        <v>54.441154</v>
+        <v>0.291411</v>
       </c>
       <c r="I23">
-        <v>0.1151986685042877</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J23">
-        <v>0.08038462987914302</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.756101</v>
+        <v>40.519894</v>
       </c>
       <c r="N23">
-        <v>27.512202</v>
+        <v>121.559682</v>
       </c>
       <c r="O23">
-        <v>0.2244462782017679</v>
+        <v>0.6658284122828639</v>
       </c>
       <c r="P23">
-        <v>0.1625500061227586</v>
+        <v>0.7489120877548844</v>
       </c>
       <c r="Q23">
-        <v>374.449006490277</v>
+        <v>3.935980943478</v>
       </c>
       <c r="R23">
-        <v>1497.796025961108</v>
+        <v>35.423828491302</v>
       </c>
       <c r="S23">
-        <v>0.02585591239958659</v>
+        <v>0.000291133667130512</v>
       </c>
       <c r="T23">
-        <v>0.01306652207903038</v>
+        <v>0.0003390085008775906</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>27.220577</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H24">
-        <v>54.441154</v>
+        <v>0.291411</v>
       </c>
       <c r="I24">
-        <v>0.1151986685042877</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J24">
-        <v>0.08038462987914302</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.710570333333333</v>
+        <v>14.8135455</v>
       </c>
       <c r="N24">
-        <v>11.131711</v>
+        <v>29.627091</v>
       </c>
       <c r="O24">
-        <v>0.06054213336486552</v>
+        <v>0.2434181955299528</v>
       </c>
       <c r="P24">
-        <v>0.0657693517664191</v>
+        <v>0.1825283367795742</v>
       </c>
       <c r="Q24">
-        <v>101.0038654724157</v>
+        <v>1.4389433692335</v>
       </c>
       <c r="R24">
-        <v>606.0231928344939</v>
+        <v>8.633660215400999</v>
       </c>
       <c r="S24">
-        <v>0.006974373152041519</v>
+        <v>0.0001064346768681007</v>
       </c>
       <c r="T24">
-        <v>0.005286844999134761</v>
+        <v>8.262472836408011E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>27.220577</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H25">
-        <v>54.441154</v>
+        <v>0.291411</v>
       </c>
       <c r="I25">
-        <v>0.1151986685042877</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J25">
-        <v>0.08038462987914302</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.5357033333333333</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N25">
-        <v>1.60711</v>
+        <v>0.0239</v>
       </c>
       <c r="O25">
-        <v>0.008740603124893291</v>
+        <v>0.0001309093507957717</v>
       </c>
       <c r="P25">
-        <v>0.009495268330028492</v>
+        <v>0.00014724453538256</v>
       </c>
       <c r="Q25">
-        <v>14.58215383415667</v>
+        <v>0.0007738580999999999</v>
       </c>
       <c r="R25">
-        <v>87.49292300494</v>
+        <v>0.006964722899999999</v>
       </c>
       <c r="S25">
-        <v>0.001006905841912124</v>
+        <v>5.724015175047298E-08</v>
       </c>
       <c r="T25">
-        <v>0.0007632736303124888</v>
+        <v>6.66528822523114E-08</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H26">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I26">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J26">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.8572995000000001</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="N26">
-        <v>1.714599</v>
+        <v>0.22332</v>
       </c>
       <c r="O26">
-        <v>0.01398780672512048</v>
+        <v>0.001223208210029779</v>
       </c>
       <c r="P26">
-        <v>0.0101303442722642</v>
+        <v>0.001375843081239887</v>
       </c>
       <c r="Q26">
-        <v>2.552018296128</v>
+        <v>0.007230878279999999</v>
       </c>
       <c r="R26">
-        <v>15.312109776768</v>
+        <v>0.06507790451999999</v>
       </c>
       <c r="S26">
-        <v>0.0001762182843674902</v>
+        <v>5.348481459797333E-07</v>
       </c>
       <c r="T26">
-        <v>0.0001335802853037288</v>
+        <v>6.228000696479574E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>2.976810666666667</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H27">
-        <v>8.930432</v>
+        <v>1.398032</v>
       </c>
       <c r="I27">
-        <v>0.01259799251093616</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J27">
-        <v>0.01318615455838528</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>40.519894</v>
+        <v>5.4405145</v>
       </c>
       <c r="N27">
-        <v>121.559682</v>
+        <v>10.881029</v>
       </c>
       <c r="O27">
-        <v>0.6611276990064369</v>
+        <v>0.08939927462635759</v>
       </c>
       <c r="P27">
-        <v>0.7182095803665801</v>
+        <v>0.06703648784891887</v>
       </c>
       <c r="Q27">
-        <v>120.6200526714027</v>
+        <v>2.535337789154666</v>
       </c>
       <c r="R27">
-        <v>1085.580474042624</v>
+        <v>15.212026734928</v>
       </c>
       <c r="S27">
-        <v>0.008328881800855547</v>
+        <v>0.0001875319516458143</v>
       </c>
       <c r="T27">
-        <v>0.009470422532026757</v>
+        <v>0.0001455801532006634</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,25 +2146,25 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>2.976810666666667</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H28">
-        <v>8.930432</v>
+        <v>1.398032</v>
       </c>
       <c r="I28">
-        <v>0.01259799251093616</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J28">
-        <v>0.01318615455838528</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.90949</v>
+        <v>40.519894</v>
       </c>
       <c r="N28">
-        <v>5.728470000000001</v>
+        <v>121.559682</v>
       </c>
       <c r="O28">
-        <v>0.031155479576916</v>
+        <v>0.6658284122828639</v>
       </c>
       <c r="P28">
-        <v>0.03384544914194941</v>
+        <v>0.7489120877548844</v>
       </c>
       <c r="Q28">
-        <v>5.684190199893334</v>
+        <v>18.88270281620267</v>
       </c>
       <c r="R28">
-        <v>51.15771179904</v>
+        <v>169.944325345824</v>
       </c>
       <c r="S28">
-        <v>0.0003924964983846122</v>
+        <v>0.001396701507238244</v>
       </c>
       <c r="T28">
-        <v>0.0004462913234837133</v>
+        <v>0.001626379005936289</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>2.976810666666667</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H29">
-        <v>8.930432</v>
+        <v>1.398032</v>
       </c>
       <c r="I29">
-        <v>0.01259799251093616</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J29">
-        <v>0.01318615455838528</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.756101</v>
+        <v>14.8135455</v>
       </c>
       <c r="N29">
-        <v>27.512202</v>
+        <v>29.627091</v>
       </c>
       <c r="O29">
-        <v>0.2244462782017679</v>
+        <v>0.2434181955299528</v>
       </c>
       <c r="P29">
-        <v>0.1625500061227586</v>
+        <v>0.1825283367795742</v>
       </c>
       <c r="Q29">
-        <v>40.949308188544</v>
+        <v>6.903270214151999</v>
       </c>
       <c r="R29">
-        <v>245.695849131264</v>
+        <v>41.419621284912</v>
       </c>
       <c r="S29">
-        <v>0.002827572531893366</v>
+        <v>0.0005106158798784693</v>
       </c>
       <c r="T29">
-        <v>0.002143409504201168</v>
+        <v>0.0003963886546640025</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>2.976810666666667</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H30">
-        <v>8.930432</v>
+        <v>1.398032</v>
       </c>
       <c r="I30">
-        <v>0.01259799251093616</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J30">
-        <v>0.01318615455838528</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>3.710570333333333</v>
+        <v>0.007966666666666667</v>
       </c>
       <c r="N30">
-        <v>11.131711</v>
+        <v>0.0239</v>
       </c>
       <c r="O30">
-        <v>0.06054213336486552</v>
+        <v>0.0001309093507957717</v>
       </c>
       <c r="P30">
-        <v>0.0657693517664191</v>
+        <v>0.00014724453538256</v>
       </c>
       <c r="Q30">
-        <v>11.04566534768355</v>
+        <v>0.003712551644444444</v>
       </c>
       <c r="R30">
-        <v>99.41098812915199</v>
+        <v>0.0334129648</v>
       </c>
       <c r="S30">
-        <v>0.000762709342726674</v>
+        <v>2.746072174077754E-07</v>
       </c>
       <c r="T30">
-        <v>0.000867244837596812</v>
+        <v>3.19764395582059E-07</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,424 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>2.976810666666667</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H31">
-        <v>8.930432</v>
+        <v>1.398032</v>
       </c>
       <c r="I31">
-        <v>0.01259799251093616</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J31">
-        <v>0.01318615455838528</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.5357033333333333</v>
+        <v>0.07444000000000001</v>
       </c>
       <c r="N31">
-        <v>1.60711</v>
+        <v>0.22332</v>
       </c>
       <c r="O31">
-        <v>0.008740603124893291</v>
+        <v>0.001223208210029779</v>
       </c>
       <c r="P31">
-        <v>0.009495268330028492</v>
+        <v>0.001375843081239887</v>
       </c>
       <c r="Q31">
-        <v>1.594687396835555</v>
+        <v>0.03468983402666666</v>
       </c>
       <c r="R31">
-        <v>14.35218657152</v>
+        <v>0.31220850624</v>
       </c>
       <c r="S31">
-        <v>0.0001101140527084709</v>
+        <v>2.565911455711481E-06</v>
       </c>
       <c r="T31">
-        <v>0.0001252060757730966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2.24251</v>
-      </c>
-      <c r="H32">
-        <v>6.72753</v>
-      </c>
-      <c r="I32">
-        <v>0.009490400078864978</v>
-      </c>
-      <c r="J32">
-        <v>0.009933478064238518</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.8572995000000001</v>
-      </c>
-      <c r="N32">
-        <v>1.714599</v>
-      </c>
-      <c r="O32">
-        <v>0.01398780672512048</v>
-      </c>
-      <c r="P32">
-        <v>0.0101303442722642</v>
-      </c>
-      <c r="Q32">
-        <v>1.922502701745</v>
-      </c>
-      <c r="R32">
-        <v>11.53501621047</v>
-      </c>
-      <c r="S32">
-        <v>0.0001327498820472315</v>
-      </c>
-      <c r="T32">
-        <v>0.0001006295526117208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2.24251</v>
-      </c>
-      <c r="H33">
-        <v>6.72753</v>
-      </c>
-      <c r="I33">
-        <v>0.009490400078864978</v>
-      </c>
-      <c r="J33">
-        <v>0.009933478064238518</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>40.519894</v>
-      </c>
-      <c r="N33">
-        <v>121.559682</v>
-      </c>
-      <c r="O33">
-        <v>0.6611276990064369</v>
-      </c>
-      <c r="P33">
-        <v>0.7182095803665801</v>
-      </c>
-      <c r="Q33">
-        <v>90.86626749393999</v>
-      </c>
-      <c r="R33">
-        <v>817.7964074454601</v>
-      </c>
-      <c r="S33">
-        <v>0.00627436636679051</v>
-      </c>
-      <c r="T33">
-        <v>0.007134319112097375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2.24251</v>
-      </c>
-      <c r="H34">
-        <v>6.72753</v>
-      </c>
-      <c r="I34">
-        <v>0.009490400078864978</v>
-      </c>
-      <c r="J34">
-        <v>0.009933478064238518</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.90949</v>
-      </c>
-      <c r="N34">
-        <v>5.728470000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.031155479576916</v>
-      </c>
-      <c r="P34">
-        <v>0.03384544914194941</v>
-      </c>
-      <c r="Q34">
-        <v>4.2820504199</v>
-      </c>
-      <c r="R34">
-        <v>38.5384537791</v>
-      </c>
-      <c r="S34">
-        <v>0.0002956779658338398</v>
-      </c>
-      <c r="T34">
-        <v>0.0003362030266258548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2.24251</v>
-      </c>
-      <c r="H35">
-        <v>6.72753</v>
-      </c>
-      <c r="I35">
-        <v>0.009490400078864978</v>
-      </c>
-      <c r="J35">
-        <v>0.009933478064238518</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>13.756101</v>
-      </c>
-      <c r="N35">
-        <v>27.512202</v>
-      </c>
-      <c r="O35">
-        <v>0.2244462782017679</v>
-      </c>
-      <c r="P35">
-        <v>0.1625500061227586</v>
-      </c>
-      <c r="Q35">
-        <v>30.84819405351</v>
-      </c>
-      <c r="R35">
-        <v>185.08916432106</v>
-      </c>
-      <c r="S35">
-        <v>0.002130084976347009</v>
-      </c>
-      <c r="T35">
-        <v>0.001614686920162259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2.24251</v>
-      </c>
-      <c r="H36">
-        <v>6.72753</v>
-      </c>
-      <c r="I36">
-        <v>0.009490400078864978</v>
-      </c>
-      <c r="J36">
-        <v>0.009933478064238518</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>3.710570333333333</v>
-      </c>
-      <c r="N36">
-        <v>11.131711</v>
-      </c>
-      <c r="O36">
-        <v>0.06054213336486552</v>
-      </c>
-      <c r="P36">
-        <v>0.0657693517664191</v>
-      </c>
-      <c r="Q36">
-        <v>8.320991078203331</v>
-      </c>
-      <c r="R36">
-        <v>74.88891970383</v>
-      </c>
-      <c r="S36">
-        <v>0.0005745690672605738</v>
-      </c>
-      <c r="T36">
-        <v>0.000653318413070911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.24251</v>
-      </c>
-      <c r="H37">
-        <v>6.72753</v>
-      </c>
-      <c r="I37">
-        <v>0.009490400078864978</v>
-      </c>
-      <c r="J37">
-        <v>0.009933478064238518</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.5357033333333333</v>
-      </c>
-      <c r="N37">
-        <v>1.60711</v>
-      </c>
-      <c r="O37">
-        <v>0.008740603124893291</v>
-      </c>
-      <c r="P37">
-        <v>0.009495268330028492</v>
-      </c>
-      <c r="Q37">
-        <v>1.201320082033333</v>
-      </c>
-      <c r="R37">
-        <v>10.8118807383</v>
-      </c>
-      <c r="S37">
-        <v>8.295182058581476E-05</v>
-      </c>
-      <c r="T37">
-        <v>9.432103967039674E-05</v>
+        <v>2.987857105497298E-06</v>
       </c>
     </row>
   </sheetData>
